--- a/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/1 dias a frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.74707384486572</v>
+        <v>10.71828979640288</v>
       </c>
       <c r="C11" t="n">
-        <v>36.93739711455193</v>
+        <v>36.82878133497957</v>
       </c>
       <c r="D11" t="n">
-        <v>46.55277960068587</v>
+        <v>46.50442516507884</v>
       </c>
     </row>
     <row r="12">
